--- a/Man-hourRecords.xlsx
+++ b/Man-hourRecords.xlsx
@@ -1,22 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kosuke_hirano\source\repos\hirano-aero\MalaysianDailyReportExcelMacro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF67BDA-25D0-4561-95D3-DDD5A08EE7E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C6049B-902D-4875-8281-FC0DBEAF14AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="作業実績" sheetId="1" r:id="rId1"/>
+    <sheet name="リスト" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">作業実績!$A$1:$H$45</definedName>
+    <definedName name="CAD">リスト!$G$2:$G$7</definedName>
+    <definedName name="CAM">リスト!$H$2:$H$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">作業実績!$A$1:$I$45</definedName>
+    <definedName name="システム">リスト!$L$2:$L$7</definedName>
+    <definedName name="その他">リスト!$Q$2:$Q$7</definedName>
+    <definedName name="マレーシア">リスト!$K$2:$K$7</definedName>
+    <definedName name="会議">リスト!$A$2:$A$7</definedName>
+    <definedName name="監査対応">リスト!$B$2:$B$7</definedName>
+    <definedName name="教育">リスト!$D$2:$D$7</definedName>
+    <definedName name="現場対応">リスト!$N$2:$N$7</definedName>
+    <definedName name="購買管理">リスト!$I$2:$I$7</definedName>
+    <definedName name="産業機械">リスト!$J$2:$J$7</definedName>
+    <definedName name="事務処理">リスト!$M$2:$M$7</definedName>
+    <definedName name="社内対応">リスト!$O$2:$O$7</definedName>
+    <definedName name="生産管理">リスト!$E$2:$E$7</definedName>
+    <definedName name="生産技術">リスト!$F$2:$F$7</definedName>
+    <definedName name="他部署支援">リスト!$P$2:$P$7</definedName>
+    <definedName name="大分類">リスト!$A$1:$Q$1</definedName>
+    <definedName name="標準化">リスト!$C$2:$C$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -54,16 +73,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>作業名</t>
-    <rPh sb="0" eb="2">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>特記事項</t>
     <rPh sb="0" eb="2">
       <t>トッキ</t>
@@ -84,6 +93,13 @@
     <t>作業No</t>
     <rPh sb="0" eb="2">
       <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>姓</t>
+    <rPh sb="0" eb="1">
+      <t>セイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -113,6 +129,344 @@
 偽コード</t>
     <rPh sb="6" eb="7">
       <t>ニセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大分類</t>
+    <rPh sb="0" eb="3">
+      <t>ダイブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中分類</t>
+    <rPh sb="0" eb="3">
+      <t>チュウブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>監査対応</t>
+  </si>
+  <si>
+    <t>標準化</t>
+  </si>
+  <si>
+    <t>教育</t>
+  </si>
+  <si>
+    <t>生産管理</t>
+  </si>
+  <si>
+    <t>生産技術</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>CAM</t>
+  </si>
+  <si>
+    <t>購買管理</t>
+  </si>
+  <si>
+    <t>産業機械</t>
+  </si>
+  <si>
+    <t>マレーシア</t>
+  </si>
+  <si>
+    <t>システム</t>
+  </si>
+  <si>
+    <t>事務処理</t>
+  </si>
+  <si>
+    <t>現場対応</t>
+  </si>
+  <si>
+    <t>社内対応</t>
+  </si>
+  <si>
+    <t>他部署支援</t>
+  </si>
+  <si>
+    <t>その他</t>
+  </si>
+  <si>
+    <t>社内</t>
+    <rPh sb="0" eb="2">
+      <t>シャナイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>内部監査</t>
+    <rPh sb="0" eb="2">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンサ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>社内標準</t>
+    <rPh sb="0" eb="2">
+      <t>シャナイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>講師</t>
+    <rPh sb="0" eb="2">
+      <t>コウシ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>計画</t>
+    <rPh sb="0" eb="2">
+      <t>ケイカク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>見積</t>
+    <rPh sb="0" eb="2">
+      <t>ミツ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>モデリング</t>
+  </si>
+  <si>
+    <t>フローチャート</t>
+  </si>
+  <si>
+    <t>購買管理</t>
+    <rPh sb="0" eb="2">
+      <t>コウバイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>営業</t>
+    <rPh sb="0" eb="2">
+      <t>エイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>開発</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>プラン</t>
+  </si>
+  <si>
+    <t>社外</t>
+    <rPh sb="0" eb="2">
+      <t>シャガイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>外部監査</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンサ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ISO</t>
+  </si>
+  <si>
+    <t>受講者</t>
+    <rPh sb="0" eb="2">
+      <t>ジュコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>進捗管理</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>生産技術(既存)</t>
+    <rPh sb="0" eb="2">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キゾン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>作図</t>
+    <rPh sb="0" eb="2">
+      <t>サクズ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>プログラム</t>
+  </si>
+  <si>
+    <t>パフォーマンス評価</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>調達</t>
+    <rPh sb="0" eb="2">
+      <t>チョウタツ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>トラブル対応</t>
+    <rPh sb="4" eb="6">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>プロジェクト</t>
+  </si>
+  <si>
+    <t>展示会</t>
+    <rPh sb="0" eb="3">
+      <t>テンジカイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>生産技術(開発)</t>
+    <rPh sb="0" eb="2">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>検証</t>
+    <rPh sb="0" eb="2">
+      <t>ケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>構内請負化支援</t>
+    <rPh sb="0" eb="2">
+      <t>コウナイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ウケオイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シエン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>生技</t>
+    <rPh sb="0" eb="1">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ギ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>購買管理</t>
+    <rPh sb="0" eb="2">
+      <t>コウバイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>検査</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>設計</t>
+    <rPh sb="0" eb="2">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>産業機器</t>
+    <rPh sb="0" eb="2">
+      <t>サンギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キキ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>製造</t>
+    <rPh sb="0" eb="2">
+      <t>セイゾウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>アフターサービス</t>
+  </si>
+  <si>
+    <t>会議</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員No</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -127,7 +481,7 @@
     <numFmt numFmtId="178" formatCode="yyyy/m/d\(aaa\)"/>
     <numFmt numFmtId="179" formatCode="0_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +494,13 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,6 +526,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -180,12 +565,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -217,70 +617,568 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+  </cellStyleXfs>
+  <cellXfs count="31">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="33">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -388,6 +1286,36 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="8" tint="0.39994506668294322"/>
@@ -545,19 +1473,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="入力テーブル" displayName="入力テーブル" ref="A3:H45" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A3:H45" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="日付" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ヘッダ" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="番号" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="K,Q,Z_x000a_偽コード" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="作業名" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="特記事項" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="工数" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="時間" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="入力テーブル" displayName="入力テーブル" ref="A3:I45" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+  <autoFilter ref="A3:I45" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="日付" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ヘッダ" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="番号" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="K,Q,Z_x000a_偽コード" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="大分類" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="中分類" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="特記事項" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="工数" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="時間" dataDxfId="22">
       <calculatedColumnFormula>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</calculatedColumnFormula>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="テーブル4" displayName="テーブル4" ref="A1:Q7" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17" headerRowCellStyle="標準 2" dataCellStyle="標準 2">
+  <autoFilter ref="A1:Q7" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="会議" dataDxfId="16" dataCellStyle="標準 2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="監査対応" dataDxfId="15" dataCellStyle="標準 2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="標準化" dataDxfId="14" dataCellStyle="標準 2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="教育" dataDxfId="13" dataCellStyle="標準 2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="生産管理" dataDxfId="12" dataCellStyle="標準 2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="生産技術" dataDxfId="11" dataCellStyle="標準 2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="CAD" dataDxfId="10" dataCellStyle="標準 2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="CAM" dataDxfId="9" dataCellStyle="標準 2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="購買管理" dataDxfId="8" dataCellStyle="標準 2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="産業機械" dataDxfId="7" dataCellStyle="標準 2"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="マレーシア" dataDxfId="6" dataCellStyle="標準 2"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="システム" dataDxfId="5" dataCellStyle="標準 2"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="事務処理" dataDxfId="4" dataCellStyle="標準 2"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="現場対応" dataDxfId="3" dataCellStyle="標準 2"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="社内対応" dataDxfId="2" dataCellStyle="標準 2"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="他部署支援" dataDxfId="1" dataCellStyle="標準 2"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="その他" dataDxfId="0" dataCellStyle="標準 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -885,649 +1840,712 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.75" style="7" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="7" customWidth="1"/>
-    <col min="5" max="5" width="15" style="7" customWidth="1"/>
-    <col min="6" max="6" width="20" style="7" customWidth="1"/>
-    <col min="7" max="7" width="8.75" style="10" customWidth="1"/>
-    <col min="8" max="8" width="8.75" style="7" customWidth="1"/>
-    <col min="9" max="9" width="9" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="17.875" style="8" customWidth="1"/>
+    <col min="2" max="3" width="8.75" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="8" customWidth="1"/>
+    <col min="5" max="6" width="15" style="8" customWidth="1"/>
+    <col min="7" max="7" width="20" style="8" customWidth="1"/>
+    <col min="8" max="8" width="8.75" style="11" customWidth="1"/>
+    <col min="9" max="9" width="8.75" style="8" customWidth="1"/>
+    <col min="10" max="10" width="9" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="1" t="s">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:11" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4"/>
-      <c r="B2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="2" t="s">
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5"/>
+      <c r="B2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="34.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="17"/>
-      <c r="H4" s="18" t="str">
-        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="19" t="str">
+        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
       <c r="G5" s="17"/>
-      <c r="H5" s="18" t="str">
-        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19" t="str">
+        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
       <c r="G6" s="17"/>
-      <c r="H6" s="18" t="str">
-        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19" t="str">
+        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
       <c r="G7" s="17"/>
-      <c r="H7" s="18" t="str">
-        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
-        <v/>
-      </c>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19" t="str">
+        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
+        <v/>
+      </c>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="17"/>
-      <c r="H8" s="18" t="str">
-        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19" t="str">
+        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
       <c r="G9" s="17"/>
-      <c r="H9" s="18" t="str">
-        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19" t="str">
+        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
       <c r="G10" s="17"/>
-      <c r="H10" s="18" t="str">
-        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19" t="str">
+        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
       <c r="G11" s="17"/>
-      <c r="H11" s="18" t="str">
-        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="19" t="str">
+        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="18" t="str">
-        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19" t="str">
+        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="17"/>
-      <c r="H13" s="18" t="str">
-        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19" t="str">
+        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
       <c r="G14" s="17"/>
-      <c r="H14" s="18" t="str">
-        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="19" t="str">
+        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
       <c r="G15" s="17"/>
-      <c r="H15" s="18" t="str">
-        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="19" t="str">
+        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
       <c r="G16" s="17"/>
-      <c r="H16" s="18" t="str">
-        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19" t="str">
+        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
       <c r="G17" s="17"/>
-      <c r="H17" s="18" t="str">
-        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="19" t="str">
+        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
       <c r="G18" s="17"/>
-      <c r="H18" s="18" t="str">
-        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19" t="str">
+        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
       <c r="G19" s="17"/>
-      <c r="H19" s="18" t="str">
-        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19" t="str">
+        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="18" t="str">
-        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="19" t="str">
+        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="18" t="str">
-        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19" t="str">
+        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
       <c r="G22" s="17"/>
-      <c r="H22" s="18" t="str">
-        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="19" t="str">
+        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="17"/>
-      <c r="H23" s="18" t="str">
-        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="19" t="str">
+        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
       <c r="G24" s="17"/>
-      <c r="H24" s="18" t="str">
-        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="19" t="str">
+        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
       <c r="G25" s="17"/>
-      <c r="H25" s="18" t="str">
-        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="19" t="str">
+        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
       <c r="G26" s="17"/>
-      <c r="H26" s="18" t="str">
-        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="19" t="str">
+        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
       <c r="G27" s="17"/>
-      <c r="H27" s="18" t="str">
-        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="19" t="str">
+        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
       <c r="G28" s="17"/>
-      <c r="H28" s="18" t="str">
-        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="19" t="str">
+        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
       <c r="G29" s="17"/>
-      <c r="H29" s="18" t="str">
-        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="19" t="str">
+        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
       <c r="G30" s="17"/>
-      <c r="H30" s="18" t="str">
-        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="19" t="str">
+        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
       <c r="G31" s="17"/>
-      <c r="H31" s="18" t="str">
-        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="19" t="str">
+        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
       <c r="G32" s="17"/>
-      <c r="H32" s="18" t="str">
-        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="19" t="str">
+        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
       <c r="G33" s="17"/>
-      <c r="H33" s="18" t="str">
-        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="19" t="str">
+        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
       <c r="G34" s="17"/>
-      <c r="H34" s="18" t="str">
-        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="19" t="str">
+        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
       <c r="G35" s="17"/>
-      <c r="H35" s="18" t="str">
-        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="19" t="str">
+        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
       <c r="G36" s="17"/>
-      <c r="H36" s="18" t="str">
-        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="19" t="str">
+        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
       <c r="G37" s="17"/>
-      <c r="H37" s="18" t="str">
-        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="19" t="str">
+        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
       <c r="G38" s="17"/>
-      <c r="H38" s="18" t="str">
-        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="19" t="str">
+        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="15"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
       <c r="G39" s="17"/>
-      <c r="H39" s="18" t="str">
-        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="14"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="19" t="str">
+        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="15"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
       <c r="G40" s="17"/>
-      <c r="H40" s="18" t="str">
-        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="19" t="str">
+        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="15"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
       <c r="G41" s="17"/>
-      <c r="H41" s="18" t="str">
-        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="19" t="str">
+        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="15"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
       <c r="G42" s="17"/>
-      <c r="H42" s="18" t="str">
-        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="19" t="str">
+        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="15"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
       <c r="G43" s="17"/>
-      <c r="H43" s="18" t="str">
-        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="19" t="str">
+        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="15"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
       <c r="G44" s="17"/>
-      <c r="H44" s="18" t="str">
-        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="19" t="str">
+        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="15"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
       <c r="G45" s="17"/>
-      <c r="H45" s="18" t="str">
-        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="19" t="str">
+        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <dataValidations count="5">
+  <dataValidations count="8">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="エラー" error="日付を入力してください" promptTitle="日付を入力してください" sqref="B14 A4:A45" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>40179</formula1>
     </dataValidation>
-    <dataValidation type="whole" imeMode="halfAlpha" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="エラー" error="数値を入力してください" promptTitle="数値を入力してください" sqref="C33:C45 C11:C31 C4:C9 D25" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="whole" imeMode="halfAlpha" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="エラー" error="数値を入力してください" promptTitle="数値を入力してください" sqref="C33:C45 C11:C31 D25 C4:C9" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="decimal" imeMode="halfAlpha" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="エラー" error="数値を入力してください" promptTitle="数値を入力してください" sqref="G4:G45" xr:uid="{00000000-0002-0000-0000-000002000000}">
-      <formula1>0</formula1>
+    <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32 C10 B15:B45 B4:B13" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation imeMode="halfAlpha" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="エラー" error="数値を入力してください" promptTitle="数値を入力してください" sqref="D26:D45 D4:D24" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E45" xr:uid="{00000000-0002-0000-0000-000005000000}">
+      <formula1>大分類</formula1>
     </dataValidation>
-    <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32 C10 B15:B45 B4:B13" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation imeMode="halfAlpha" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="エラー" error="数値を入力してください" promptTitle="数値を入力してください" sqref="E20 E16 D4:D24 D26:D45 E13" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F45" xr:uid="{00000000-0002-0000-0000-000006000000}">
+      <formula1>INDIRECT($E4)</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="1000～9999の間の数値を入力してください" sqref="F2" xr:uid="{00000000-0002-0000-0000-000007000000}">
+      <formula1>1000</formula1>
+      <formula2>9999</formula2>
+    </dataValidation>
+    <dataValidation type="custom" imeMode="halfAlpha" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="エラー" error="数値を0.5刻みで入力してください" promptTitle="数値を0.5刻みで入力してください" sqref="H4:H45" xr:uid="{00000000-0002-0000-0000-000008000000}">
+      <formula1>AND(MOD(H4*2,1)=0,H4&gt;=0)</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1535,4 +2553,288 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:Q7"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10" style="21"/>
+    <col min="2" max="2" width="10.25" style="21" customWidth="1"/>
+    <col min="3" max="4" width="10" style="21"/>
+    <col min="5" max="6" width="10.25" style="21" customWidth="1"/>
+    <col min="7" max="8" width="10" style="21"/>
+    <col min="9" max="10" width="10.25" style="21" customWidth="1"/>
+    <col min="11" max="11" width="11.125" style="21" customWidth="1"/>
+    <col min="12" max="12" width="10" style="21"/>
+    <col min="13" max="15" width="10.25" style="21" customWidth="1"/>
+    <col min="16" max="16" width="12.125" style="21" customWidth="1"/>
+    <col min="17" max="16384" width="10" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A3" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A5" s="22"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6" s="22"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="23"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="29"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Man-hourRecords.xlsx
+++ b/Man-hourRecords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kosuke_hirano\source\repos\hirano-aero\MalaysianDailyReportExcelMacro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C6049B-902D-4875-8281-FC0DBEAF14AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDADCB40-CD0D-4387-8C06-AC7514E884DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="2730" windowWidth="19605" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="作業実績" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
   <definedNames>
     <definedName name="CAD">リスト!$G$2:$G$7</definedName>
     <definedName name="CAM">リスト!$H$2:$H$7</definedName>
+    <definedName name="EmployeeName">作業実績!$G$2</definedName>
+    <definedName name="EmployeeNumber">作業実績!$E$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">作業実績!$A$1:$I$45</definedName>
     <definedName name="システム">リスト!$L$2:$L$7</definedName>
     <definedName name="その他">リスト!$Q$2:$Q$7</definedName>
@@ -53,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -62,17 +64,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ヘッダ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>番号</t>
-    <rPh sb="0" eb="2">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>特記事項</t>
     <rPh sb="0" eb="2">
       <t>トッキ</t>
@@ -90,20 +81,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>作業No</t>
-    <rPh sb="0" eb="2">
-      <t>サギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>姓</t>
-    <rPh sb="0" eb="1">
-      <t>セイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>名</t>
     <rPh sb="0" eb="1">
       <t>メイ</t>
@@ -125,14 +102,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>K,Q,Z
-偽コード</t>
-    <rPh sb="6" eb="7">
-      <t>ニセ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>大分類</t>
     <rPh sb="0" eb="3">
       <t>ダイブンルイ</t>
@@ -199,7 +168,7 @@
     <rPh sb="0" eb="2">
       <t>シャナイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>内部監査</t>
@@ -209,7 +178,7 @@
     <rPh sb="2" eb="4">
       <t>カンサ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>社内標準</t>
@@ -219,28 +188,28 @@
     <rPh sb="2" eb="4">
       <t>ヒョウジュン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>講師</t>
     <rPh sb="0" eb="2">
       <t>コウシ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>計画</t>
     <rPh sb="0" eb="2">
       <t>ケイカク</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>見積</t>
     <rPh sb="0" eb="2">
       <t>ミツ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>モデリング</t>
@@ -256,21 +225,21 @@
     <rPh sb="2" eb="4">
       <t>カンリ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>営業</t>
     <rPh sb="0" eb="2">
       <t>エイギョウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>開発</t>
     <rPh sb="0" eb="2">
       <t>カイハツ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>プラン</t>
@@ -280,7 +249,7 @@
     <rPh sb="0" eb="2">
       <t>シャガイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>外部監査</t>
@@ -290,7 +259,7 @@
     <rPh sb="2" eb="4">
       <t>カンサ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ISO</t>
@@ -303,7 +272,7 @@
     <rPh sb="2" eb="3">
       <t>シャ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>進捗管理</t>
@@ -313,7 +282,7 @@
     <rPh sb="2" eb="4">
       <t>カンリ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>生産技術(既存)</t>
@@ -326,14 +295,14 @@
     <rPh sb="5" eb="7">
       <t>キゾン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>作図</t>
     <rPh sb="0" eb="2">
       <t>サクズ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>プログラム</t>
@@ -343,21 +312,21 @@
     <rPh sb="7" eb="9">
       <t>ヒョウカ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>調達</t>
     <rPh sb="0" eb="2">
       <t>チョウタツ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>トラブル対応</t>
     <rPh sb="4" eb="6">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>プロジェクト</t>
@@ -367,7 +336,7 @@
     <rPh sb="0" eb="3">
       <t>テンジカイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>生産技術(開発)</t>
@@ -380,14 +349,14 @@
     <rPh sb="5" eb="7">
       <t>カイハツ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>検証</t>
     <rPh sb="0" eb="2">
       <t>ケンショウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>構内請負化支援</t>
@@ -403,7 +372,7 @@
     <rPh sb="5" eb="7">
       <t>シエン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>生技</t>
@@ -413,7 +382,7 @@
     <rPh sb="1" eb="2">
       <t>ギ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>購買管理</t>
@@ -423,21 +392,21 @@
     <rPh sb="2" eb="4">
       <t>カンリ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>検査</t>
     <rPh sb="0" eb="2">
       <t>ケンサ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>設計</t>
     <rPh sb="0" eb="2">
       <t>セッケイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>産業機器</t>
@@ -447,14 +416,14 @@
     <rPh sb="2" eb="4">
       <t>キキ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>製造</t>
     <rPh sb="0" eb="2">
       <t>セイゾウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>アフターサービス</t>
@@ -467,6 +436,20 @@
     <t>社員No</t>
     <rPh sb="0" eb="2">
       <t>シャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業番号</t>
+  </si>
+  <si>
+    <t>コード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残業区分</t>
+    <rPh sb="0" eb="4">
+      <t>ザンギョウクブン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -481,7 +464,7 @@
     <numFmt numFmtId="178" formatCode="yyyy/m/d\(aaa\)"/>
     <numFmt numFmtId="179" formatCode="0_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,13 +477,6 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -716,98 +692,96 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1255,6 +1229,38 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
@@ -1367,31 +1373,6 @@
         <name val="ＭＳ Ｐゴシック"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="179" formatCode="0_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1477,12 +1458,12 @@
   <autoFilter ref="A3:I45" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="日付" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ヘッダ" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="番号" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="K,Q,Z_x000a_偽コード" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="大分類" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="中分類" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="特記事項" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="作業番号" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="コード" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="大分類" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="中分類" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="特記事項" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{D0B7001C-6EB7-4C39-9BBD-82B24E0F8561}" name="残業区分" dataDxfId="24"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="工数" dataDxfId="23"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="時間" dataDxfId="22">
       <calculatedColumnFormula>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</calculatedColumnFormula>
@@ -1843,708 +1824,704 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.875" style="8" customWidth="1"/>
-    <col min="2" max="3" width="8.75" style="8" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="8" customWidth="1"/>
-    <col min="5" max="6" width="15" style="8" customWidth="1"/>
-    <col min="7" max="7" width="20" style="8" customWidth="1"/>
-    <col min="8" max="8" width="8.75" style="11" customWidth="1"/>
-    <col min="9" max="9" width="8.75" style="8" customWidth="1"/>
-    <col min="10" max="10" width="9" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="17.875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="7" customWidth="1"/>
+    <col min="4" max="5" width="15" style="7" customWidth="1"/>
+    <col min="6" max="6" width="20" style="7" customWidth="1"/>
+    <col min="7" max="7" width="17" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.75" style="10" customWidth="1"/>
+    <col min="9" max="9" width="8.75" style="7" customWidth="1"/>
+    <col min="10" max="10" width="9" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="1" t="s">
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="30" t="s">
+      <c r="F3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" ht="34.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="19" t="str">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="18" t="str">
         <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19" t="str">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18" t="str">
         <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19" t="str">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18" t="str">
         <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19" t="str">
-        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
-        <v/>
-      </c>
-      <c r="L7" s="10"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18" t="str">
+        <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
+        <v/>
+      </c>
+      <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19" t="str">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18" t="str">
         <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19" t="str">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18" t="str">
         <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19" t="str">
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18" t="str">
         <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="19" t="str">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="18" t="str">
         <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="19" t="str">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="18" t="str">
         <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="19" t="str">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18" t="str">
         <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="19" t="str">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="18" t="str">
         <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="19" t="str">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="18" t="str">
         <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="19" t="str">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="18" t="str">
         <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="19" t="str">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="18" t="str">
         <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="19" t="str">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="18" t="str">
         <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="19" t="str">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="18" t="str">
         <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="19" t="str">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="18" t="str">
         <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="19" t="str">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="18" t="str">
         <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="19" t="str">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="18" t="str">
         <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="19" t="str">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="18" t="str">
         <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="19" t="str">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="18" t="str">
         <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="19" t="str">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="18" t="str">
         <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="19" t="str">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="18" t="str">
         <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="19" t="str">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="18" t="str">
         <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="19" t="str">
+      <c r="A28" s="14"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="18" t="str">
         <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="19" t="str">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="18" t="str">
         <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="19" t="str">
+      <c r="A30" s="14"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="18" t="str">
         <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="19" t="str">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="18" t="str">
         <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="16"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="19" t="str">
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="18" t="str">
         <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="19" t="str">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="18" t="str">
         <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="19" t="str">
+      <c r="A34" s="14"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="18" t="str">
         <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="19" t="str">
+      <c r="A35" s="14"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="18" t="str">
         <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="19" t="str">
+      <c r="A36" s="14"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="18" t="str">
         <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="19" t="str">
+      <c r="A37" s="14"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="18" t="str">
         <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="19" t="str">
+      <c r="A38" s="14"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="18" t="str">
         <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="19" t="str">
+      <c r="A39" s="14"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="18" t="str">
         <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="15"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="19" t="str">
+      <c r="A40" s="14"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="18" t="str">
         <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="15"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="19" t="str">
+      <c r="A41" s="14"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="18" t="str">
         <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="19" t="str">
+      <c r="A42" s="14"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="18" t="str">
         <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="19" t="str">
+      <c r="A43" s="14"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="18" t="str">
         <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="19" t="str">
+      <c r="A44" s="14"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="18" t="str">
         <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="19" t="str">
+      <c r="A45" s="14"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="18" t="str">
         <f>IF(入力テーブル[[#This Row],[工数]]="","",IFERROR(入力テーブル[[#This Row],[工数]]/24,""))</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="エラー" error="日付を入力してください" promptTitle="日付を入力してください" sqref="B14 A4:A45" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>40179</formula1>
     </dataValidation>
-    <dataValidation type="whole" imeMode="halfAlpha" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="エラー" error="数値を入力してください" promptTitle="数値を入力してください" sqref="C33:C45 C11:C31 D25 C4:C9" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="whole" imeMode="halfAlpha" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="エラー" error="数値を入力してください" promptTitle="数値を入力してください" sqref="C25" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32 C10 B15:B45 B4:B13" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation imeMode="halfAlpha" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="エラー" error="数値を入力してください" promptTitle="数値を入力してください" sqref="D26:D45 D4:D24" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E45" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:B45 B4:B13" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation imeMode="halfAlpha" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="エラー" error="数値を入力してください" promptTitle="数値を入力してください" sqref="C26:C45 C4:C24" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D45" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>大分類</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F45" xr:uid="{00000000-0002-0000-0000-000006000000}">
-      <formula1>INDIRECT($E4)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E45" xr:uid="{00000000-0002-0000-0000-000006000000}">
+      <formula1>INDIRECT($D4)</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="1000～9999の間の数値を入力してください" sqref="F2" xr:uid="{00000000-0002-0000-0000-000007000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="1000～9999の間の数値を入力してください" sqref="E2" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>1000</formula1>
       <formula2>9999</formula2>
     </dataValidation>
     <dataValidation type="custom" imeMode="halfAlpha" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="エラー" error="数値を0.5刻みで入力してください" promptTitle="数値を0.5刻みで入力してください" sqref="H4:H45" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>AND(MOD(H4*2,1)=0,H4&gt;=0)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G45" xr:uid="{E6C1005A-1D63-4BE7-9EC3-F6B1ECE2F3B1}">
+      <formula1>"残業,休日"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2566,269 +2543,269 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10" style="21"/>
-    <col min="2" max="2" width="10.25" style="21" customWidth="1"/>
-    <col min="3" max="4" width="10" style="21"/>
-    <col min="5" max="6" width="10.25" style="21" customWidth="1"/>
-    <col min="7" max="8" width="10" style="21"/>
-    <col min="9" max="10" width="10.25" style="21" customWidth="1"/>
-    <col min="11" max="11" width="11.125" style="21" customWidth="1"/>
-    <col min="12" max="12" width="10" style="21"/>
-    <col min="13" max="15" width="10.25" style="21" customWidth="1"/>
-    <col min="16" max="16" width="12.125" style="21" customWidth="1"/>
-    <col min="17" max="16384" width="10" style="21"/>
+    <col min="1" max="1" width="10" style="20"/>
+    <col min="2" max="2" width="10.25" style="20" customWidth="1"/>
+    <col min="3" max="4" width="10" style="20"/>
+    <col min="5" max="6" width="10.25" style="20" customWidth="1"/>
+    <col min="7" max="8" width="10" style="20"/>
+    <col min="9" max="10" width="10.25" style="20" customWidth="1"/>
+    <col min="11" max="11" width="11.125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="10" style="20"/>
+    <col min="13" max="15" width="10.25" style="20" customWidth="1"/>
+    <col min="16" max="16" width="12.125" style="20" customWidth="1"/>
+    <col min="17" max="16384" width="10" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="H1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="I1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="J1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="K1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="L1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="M1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="N1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="O1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="P1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="Q1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="25" t="s">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="B2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="C2" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="D2" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="E2" s="19" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
+      <c r="F2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="G2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="H2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="J2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="K2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="M2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="20" t="s">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A3" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="23" t="s">
+      <c r="E3" s="19" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+      <c r="F3" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="H3" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="I3" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="J3" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="K3" s="19"/>
+      <c r="L3" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="20" t="s">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A4" s="21"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="E4" s="19"/>
+      <c r="F4" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="G4" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20" t="s">
+      <c r="H4" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="23" t="s">
+      <c r="J4" s="19" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20" t="s">
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20" t="s">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A5" s="21"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="20" t="s">
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="20" t="s">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6" s="21"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="23" t="s">
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="22"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="22"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="22"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="23"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="29"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
